--- a/Christos_first_second/R2_simuls/err2_off_fR2.xlsx
+++ b/Christos_first_second/R2_simuls/err2_off_fR2.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.9</v>
+        <v>-7.68</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9</v>
+        <v>7.68</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.52</v>
+        <v>10.61</v>
       </c>
       <c r="C3" t="n">
-        <v>14.52</v>
+        <v>10.61</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.96</v>
+        <v>2.83</v>
       </c>
       <c r="C4" t="n">
-        <v>3.96</v>
+        <v>2.83</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>163.24</v>
+        <v>-5.74</v>
       </c>
       <c r="C5" t="n">
-        <v>163.24</v>
+        <v>5.74</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-16.27</v>
+        <v>4.8</v>
       </c>
       <c r="C6" t="n">
-        <v>16.27</v>
+        <v>4.8</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.33</v>
+        <v>166.54</v>
       </c>
       <c r="C7" t="n">
-        <v>8.33</v>
+        <v>166.54</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.98</v>
+        <v>5.72</v>
       </c>
       <c r="C8" t="n">
-        <v>0.98</v>
+        <v>5.72</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-13.77</v>
+        <v>-9.59</v>
       </c>
       <c r="C9" t="n">
-        <v>13.77</v>
+        <v>9.59</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.42</v>
+        <v>4.55</v>
       </c>
       <c r="C10" t="n">
-        <v>7.42</v>
+        <v>4.55</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="C11" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -609,6 +609,1806 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-158.92</v>
+      </c>
+      <c r="C13" t="n">
+        <v>158.92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-14.46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>142.39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>142.39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-12.48</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-7.45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.98</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.79</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-18.24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-8.94</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-10.41</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-8.41</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>165.94</v>
+      </c>
+      <c r="C54" t="n">
+        <v>165.94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-11.53</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>168.99</v>
+      </c>
+      <c r="C59" t="n">
+        <v>168.99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-172.8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-19.15</v>
+      </c>
+      <c r="C64" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="C76" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-7.72</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-6.11</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-5.64</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
         <v>7</v>
       </c>
     </row>
